--- a/resource/01.기능/01.[Uranus]요구사항.xlsx
+++ b/resource/01.기능/01.[Uranus]요구사항.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecommerce\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.uranus\resource\01.기능\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="219">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,10 +254,6 @@
   </si>
   <si>
     <t>관리자는 상품을 등록/수정/삭제 할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:1 문의을 통해 고객 문의에 답변 할 수 있어야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2107,6 +2103,18 @@
   </si>
   <si>
     <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 페이지에서 현재 내가 판매하는 상품에 구매한 내역에 대하여 확인할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1 문의를 통해 고객 문의에 답변 할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자는 고객들이 현재까지 문의한 내역들에 대해 답글을 달 수 있어야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2114,7 +2122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2327,38 +2335,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2371,6 +2349,36 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2654,11 +2662,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13.75" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.375" style="2" customWidth="1"/>
@@ -2674,20 +2682,20 @@
     <col min="15" max="15" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+    <row r="1" spans="1:9" ht="39" customHeight="1">
+      <c r="A1" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2698,7 +2706,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2723,17 +2731,17 @@
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="16.5" customHeight="1">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="23" t="s">
+      <c r="C4" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -2746,13 +2754,13 @@
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="10" t="s">
         <v>12</v>
       </c>
@@ -2763,15 +2771,15 @@
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="18" t="s">
-        <v>104</v>
+      <c r="B6" s="26"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>9</v>
@@ -2780,65 +2788,65 @@
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="20"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16.5" customHeight="1">
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="18" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -2847,44 +2855,44 @@
       <c r="G10" s="13"/>
       <c r="H10" s="17"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="17"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="19"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="23" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="26" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -2893,61 +2901,61 @@
       <c r="G13" s="10"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="23"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="19"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="17"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="18" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="17"/>
     </row>
-    <row r="17" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="16.5" customHeight="1">
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="10" t="s">
         <v>22</v>
       </c>
@@ -2957,14 +2965,14 @@
       <c r="G17" s="14"/>
       <c r="H17" s="17"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="18" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="23" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -2973,27 +2981,27 @@
       <c r="G18" s="14"/>
       <c r="H18" s="17"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14">
       <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="17"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="19"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="10" t="s">
         <v>26</v>
       </c>
@@ -3003,13 +3011,13 @@
       <c r="G20" s="14"/>
       <c r="H20" s="17"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14">
       <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="19"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="10" t="s">
         <v>28</v>
       </c>
@@ -3019,43 +3027,43 @@
       <c r="G21" s="14"/>
       <c r="H21" s="17"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="23" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="26" t="s">
         <v>31</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="17"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="23"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="8" t="s">
         <v>32</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="17"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="18" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="23" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="10" t="s">
@@ -3067,13 +3075,13 @@
       <c r="G24" s="10"/>
       <c r="H24" s="17"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="19"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="10" t="s">
         <v>35</v>
       </c>
@@ -3083,32 +3091,32 @@
       <c r="G25" s="10"/>
       <c r="H25" s="17"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="20"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="17"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="23" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="26" t="s">
         <v>39</v>
       </c>
       <c r="F27" s="8" t="s">
@@ -3117,80 +3125,80 @@
       <c r="G27" s="10"/>
       <c r="H27" s="17"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="23"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="17"/>
     </row>
-    <row r="29" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="9" customFormat="1">
       <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="19"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="17"/>
       <c r="N29"/>
     </row>
-    <row r="30" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="9" customFormat="1">
       <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="19"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="24"/>
       <c r="E30" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="17"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>75</v>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="17"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14">
       <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="23"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="10" t="s">
         <v>12</v>
       </c>
@@ -3200,15 +3208,15 @@
       <c r="G32" s="10"/>
       <c r="H32" s="17"/>
     </row>
-    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="16.5" customHeight="1">
       <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="18" t="s">
-        <v>103</v>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="23" t="s">
+        <v>102</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>9</v>
@@ -3216,59 +3224,59 @@
       <c r="G33" s="10"/>
       <c r="H33" s="17"/>
     </row>
-    <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="16.5" customHeight="1">
       <c r="A34" s="5">
         <v>32</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="20"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="17"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11">
       <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="23"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11">
       <c r="A36" s="5">
         <v>34</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="23"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11">
       <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="18" t="s">
+      <c r="B37" s="26"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E37" s="14" t="s">
@@ -3280,79 +3288,79 @@
       <c r="G37" s="10"/>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11">
       <c r="A38" s="5">
         <v>36</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="18" t="s">
+      <c r="B38" s="26"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11">
       <c r="A39" s="5">
         <v>37</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
       <c r="F39" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="17"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11">
       <c r="A40" s="5">
         <v>38</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="19"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="17"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11">
       <c r="A41" s="5">
         <v>39</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="20"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="25"/>
       <c r="E41" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="17"/>
       <c r="K41"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11">
       <c r="A42" s="5">
         <v>40</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="23" t="s">
+      <c r="B42" s="26"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="26" t="s">
         <v>39</v>
       </c>
       <c r="F42" s="8" t="s">
@@ -3362,188 +3370,188 @@
       <c r="H42" s="17"/>
       <c r="K42"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11">
       <c r="A43" s="5">
         <v>41</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="23"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="26"/>
       <c r="F43" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="17"/>
       <c r="K43"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11">
       <c r="A44" s="5">
         <v>42</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="19"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="17"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11">
       <c r="A45" s="5">
         <v>43</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="23" t="s">
+      <c r="B45" s="26"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="26" t="s">
         <v>26</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="17"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11">
       <c r="A46" s="5">
         <v>44</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="23"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="26"/>
       <c r="F46" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="17"/>
     </row>
-    <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="16.5" customHeight="1">
       <c r="A47" s="5">
         <v>45</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="19"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="24"/>
       <c r="E47" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="17"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11">
       <c r="A48" s="5">
         <v>46</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="20"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="25"/>
       <c r="E48" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="17"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11">
       <c r="A49" s="5">
         <v>47</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E49" s="23" t="s">
+      <c r="B49" s="26"/>
+      <c r="C49" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="26" t="s">
         <v>11</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="17"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11">
       <c r="A50" s="5">
         <v>48</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="23"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="26"/>
       <c r="F50" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G50" s="13"/>
       <c r="H50" s="17"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11">
       <c r="A51" s="5">
         <v>49</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="18" t="s">
+      <c r="B51" s="26"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G51" s="13"/>
       <c r="H51" s="17"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11">
       <c r="A52" s="5">
         <v>50</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
       <c r="F52" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G52" s="13"/>
       <c r="H52" s="17"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11">
       <c r="A53" s="5">
         <v>51</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
       <c r="F53" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G53" s="13"/>
       <c r="H53" s="17"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11">
       <c r="A54" s="5">
         <v>52</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>210</v>
+      <c r="B54" s="26"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>209</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>44</v>
@@ -3551,44 +3559,44 @@
       <c r="G54" s="16"/>
       <c r="H54" s="17"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11">
       <c r="A55" s="5">
         <v>53</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
       <c r="F55" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G55" s="16"/>
       <c r="H55" s="17"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11">
       <c r="A56" s="5">
         <v>54</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
       <c r="F56" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G56" s="16"/>
       <c r="H56" s="17"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11">
       <c r="A57" s="5">
         <v>55</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="20"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="25"/>
       <c r="F57" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G57" s="16"/>
       <c r="H57" s="17"/>
@@ -3596,18 +3604,18 @@
       <c r="J57"/>
       <c r="K57"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11">
       <c r="A58" s="5">
         <v>56</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="23" t="s">
-        <v>119</v>
+      <c r="B58" s="26"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="26" t="s">
+        <v>118</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>121</v>
+        <v>216</v>
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="17"/>
@@ -3615,16 +3623,16 @@
       <c r="J58"/>
       <c r="K58"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11">
       <c r="A59" s="5">
         <v>57</v>
       </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="23"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="26"/>
       <c r="F59" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="17"/>
@@ -3632,16 +3640,16 @@
       <c r="J59"/>
       <c r="K59"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11">
       <c r="A60" s="5">
         <v>58</v>
       </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="23"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="26"/>
       <c r="F60" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="17"/>
@@ -3649,18 +3657,18 @@
       <c r="J60"/>
       <c r="K60"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11">
       <c r="A61" s="5">
         <v>59</v>
       </c>
-      <c r="B61" s="23"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="19"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="24"/>
       <c r="E61" s="13" t="s">
         <v>28</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="17"/>
@@ -3668,18 +3676,18 @@
       <c r="J61"/>
       <c r="K61"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11">
       <c r="A62" s="5">
         <v>60</v>
       </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="19"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="24"/>
       <c r="E62" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="17"/>
@@ -3687,18 +3695,18 @@
       <c r="J62"/>
       <c r="K62"/>
     </row>
-    <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="16.5" customHeight="1">
       <c r="A63" s="5">
         <v>61</v>
       </c>
-      <c r="B63" s="23"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="20"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="25"/>
       <c r="E63" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="17"/>
@@ -3706,17 +3714,17 @@
       <c r="J63"/>
       <c r="K63"/>
     </row>
-    <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="16.5" customHeight="1">
       <c r="A64" s="5">
         <v>62</v>
       </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="18" t="s">
-        <v>212</v>
+      <c r="B64" s="26"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="23" t="s">
+        <v>211</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>45</v>
@@ -3727,18 +3735,18 @@
       <c r="J64"/>
       <c r="K64"/>
     </row>
-    <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="16.5" customHeight="1">
       <c r="A65" s="5">
         <v>63</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="19"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="24"/>
       <c r="E65" s="16" t="s">
         <v>54</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="17"/>
@@ -3746,15 +3754,15 @@
       <c r="J65"/>
       <c r="K65"/>
     </row>
-    <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="16.5" customHeight="1">
       <c r="A66" s="5">
         <v>64</v>
       </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="20"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="25"/>
       <c r="E66" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F66" s="8" t="s">
         <v>56</v>
@@ -3765,20 +3773,20 @@
       <c r="J66"/>
       <c r="K66"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11">
       <c r="A67" s="5">
         <v>65</v>
       </c>
-      <c r="B67" s="23"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E67" s="18" t="s">
+      <c r="B67" s="26"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E67" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G67" s="11"/>
       <c r="H67" s="17"/>
@@ -3786,16 +3794,16 @@
       <c r="J67"/>
       <c r="K67"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11">
       <c r="A68" s="5">
         <v>66</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="20"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="25"/>
       <c r="F68" s="8" t="s">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="G68" s="11"/>
       <c r="H68" s="17"/>
@@ -3803,18 +3811,18 @@
       <c r="J68"/>
       <c r="K68"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11">
       <c r="A69" s="5">
         <v>67</v>
       </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="23"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="26"/>
       <c r="E69" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F69" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="G69" s="11"/>
       <c r="H69" s="17"/>
@@ -3822,20 +3830,20 @@
       <c r="J69"/>
       <c r="K69"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11">
       <c r="A70" s="5">
         <v>68</v>
       </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="23" t="s">
+      <c r="B70" s="26"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E70" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E70" s="13" t="s">
+      <c r="F70" s="12" t="s">
         <v>126</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>127</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="17"/>
@@ -3843,18 +3851,18 @@
       <c r="J70"/>
       <c r="K70"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11">
       <c r="A71" s="5">
         <v>69</v>
       </c>
-      <c r="B71" s="23"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="23"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="26"/>
       <c r="E71" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F71" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>131</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="17"/>
@@ -3862,129 +3870,129 @@
       <c r="J71"/>
       <c r="K71"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11">
       <c r="A72" s="5">
         <v>70</v>
       </c>
-      <c r="B72" s="23"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="23"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="26"/>
       <c r="E72" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="17"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11">
       <c r="A73" s="5">
         <v>71</v>
       </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="23"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="26"/>
       <c r="E73" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F73" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>129</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="17"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11">
       <c r="A74" s="5">
         <v>72</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="D74" s="18" t="s">
+      <c r="B74" s="26"/>
+      <c r="C74" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D74" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="18" t="s">
+      <c r="E74" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G74" s="13"/>
       <c r="H74" s="17"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11">
       <c r="A75" s="5">
         <v>73</v>
       </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="20"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="25"/>
       <c r="F75" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G75" s="13"/>
       <c r="H75" s="17"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11">
       <c r="A76" s="5">
         <v>74</v>
       </c>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="18" t="s">
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G76" s="13"/>
       <c r="H76" s="17"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11">
       <c r="A77" s="5">
         <v>75</v>
       </c>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
       <c r="F77" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G77" s="13"/>
       <c r="H77" s="17"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11">
       <c r="A78" s="5">
         <v>76</v>
       </c>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
       <c r="F78" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G78" s="13"/>
       <c r="I78"/>
       <c r="J78"/>
       <c r="K78"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11">
       <c r="A79" s="5">
         <v>77</v>
       </c>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="18" t="s">
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E79" s="18" t="s">
-        <v>213</v>
+      <c r="E79" s="23" t="s">
+        <v>212</v>
       </c>
       <c r="F79" s="8" t="s">
         <v>44</v>
@@ -3994,111 +4002,111 @@
       <c r="J79"/>
       <c r="K79"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11">
       <c r="A80" s="5">
         <v>78</v>
       </c>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
       <c r="F80" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G80" s="16"/>
       <c r="I80"/>
       <c r="J80"/>
       <c r="K80"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11">
       <c r="A81" s="5">
         <v>79</v>
       </c>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
       <c r="F81" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G81" s="16"/>
       <c r="I81"/>
       <c r="J81"/>
       <c r="K81"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11">
       <c r="A82" s="5">
         <v>80</v>
       </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="20"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="25"/>
       <c r="F82" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G82" s="16"/>
       <c r="I82"/>
       <c r="J82"/>
       <c r="K82"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11">
       <c r="A83" s="5">
         <v>81</v>
       </c>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="18" t="s">
-        <v>119</v>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G83" s="13"/>
       <c r="I83"/>
       <c r="J83"/>
       <c r="K83"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11">
       <c r="A84" s="5">
         <v>82</v>
       </c>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
       <c r="F84" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G84" s="13"/>
       <c r="I84"/>
       <c r="J84"/>
       <c r="K84"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11">
       <c r="A85" s="5">
         <v>83</v>
       </c>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="20"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="25"/>
       <c r="F85" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G85" s="13"/>
       <c r="I85"/>
       <c r="J85"/>
       <c r="K85"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11">
       <c r="A86" s="5">
         <v>84</v>
       </c>
-      <c r="B86" s="23"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="19"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="24"/>
       <c r="E86" s="13" t="s">
         <v>28</v>
       </c>
@@ -4108,49 +4116,49 @@
       <c r="G86" s="13"/>
       <c r="H86" s="17"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11">
       <c r="A87" s="5">
         <v>85</v>
       </c>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="19"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="24"/>
       <c r="E87" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F87" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="G87" s="13"/>
       <c r="H87" s="17"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11">
       <c r="A88" s="5">
         <v>86</v>
       </c>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="20"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="25"/>
       <c r="E88" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="17"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11">
       <c r="A89" s="5">
         <v>87</v>
       </c>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="18" t="s">
-        <v>212</v>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="23" t="s">
+        <v>211</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F89" s="8" t="s">
         <v>45</v>
@@ -4158,31 +4166,31 @@
       <c r="G89" s="16"/>
       <c r="H89" s="17"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11">
       <c r="A90" s="5">
         <v>88</v>
       </c>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="19"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="24"/>
       <c r="E90" s="16" t="s">
         <v>54</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G90" s="16"/>
       <c r="H90" s="17"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11">
       <c r="A91" s="5">
         <v>89</v>
       </c>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="20"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="25"/>
       <c r="E91" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F91" s="8" t="s">
         <v>56</v>
@@ -4190,134 +4198,134 @@
       <c r="G91" s="16"/>
       <c r="H91" s="17"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11">
       <c r="A92" s="5">
         <v>90</v>
       </c>
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E92" s="18" t="s">
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E92" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G92" s="16"/>
       <c r="H92" s="17"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11">
       <c r="A93" s="5">
         <v>91</v>
       </c>
-      <c r="B93" s="23"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="20"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="25"/>
       <c r="F93" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G93" s="16"/>
       <c r="H93" s="17"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11">
       <c r="A94" s="5">
         <v>92</v>
       </c>
-      <c r="B94" s="23"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
       <c r="E94" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F94" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="G94" s="16"/>
       <c r="H94" s="17"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11">
       <c r="A95" s="5">
         <v>93</v>
       </c>
-      <c r="B95" s="23"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="18" t="s">
-        <v>125</v>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="E95" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F95" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="F95" s="12" t="s">
-        <v>131</v>
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="17"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11">
       <c r="A96" s="5">
         <v>94</v>
       </c>
-      <c r="B96" s="23"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="20"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="25"/>
       <c r="E96" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="17"/>
     </row>
-    <row r="97" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="16.5" customHeight="1">
       <c r="A97" s="5">
         <v>95</v>
       </c>
-      <c r="B97" s="23"/>
-      <c r="C97" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="D97" s="23" t="s">
+      <c r="B97" s="26"/>
+      <c r="C97" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D97" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="E97" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="E97" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="F97" s="27" t="s">
-        <v>141</v>
+      <c r="F97" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="G97" s="16"/>
       <c r="H97" s="17"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11">
       <c r="A98" s="5">
         <v>96</v>
       </c>
-      <c r="B98" s="23"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
       <c r="F98" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G98" s="16"/>
       <c r="H98" s="17"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11">
       <c r="A99" s="5">
         <v>97</v>
       </c>
-      <c r="B99" s="23"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23" t="s">
+      <c r="B99" s="26"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="F99" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="G99" s="16"/>
       <c r="H99" s="17"/>
@@ -4325,16 +4333,16 @@
       <c r="J99"/>
       <c r="K99"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11">
       <c r="A100" s="5">
         <v>98</v>
       </c>
-      <c r="B100" s="23"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
       <c r="F100" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G100" s="16"/>
       <c r="H100" s="17"/>
@@ -4342,16 +4350,16 @@
       <c r="J100"/>
       <c r="K100"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11">
       <c r="A101" s="5">
         <v>99</v>
       </c>
-      <c r="B101" s="23"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
       <c r="F101" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G101" s="16"/>
       <c r="H101" s="17"/>
@@ -4359,744 +4367,744 @@
       <c r="J101"/>
       <c r="K101"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11">
       <c r="A102" s="5">
         <v>100</v>
       </c>
-      <c r="B102" s="23"/>
-      <c r="C102" s="25"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="27"/>
       <c r="D102" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E102" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E102" s="28" t="s">
+      <c r="F102" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="F102" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G102" s="29"/>
+      <c r="G102" s="19"/>
       <c r="H102" s="17"/>
       <c r="I102"/>
       <c r="J102"/>
       <c r="K102"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11">
       <c r="A103" s="5">
         <v>101</v>
       </c>
-      <c r="B103" s="23"/>
-      <c r="C103" s="25"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="27"/>
       <c r="D103" s="28"/>
       <c r="E103" s="28"/>
-      <c r="F103" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="G103" s="29"/>
+      <c r="F103" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G103" s="19"/>
       <c r="H103" s="17"/>
       <c r="I103"/>
       <c r="J103"/>
       <c r="K103"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11">
       <c r="A104" s="5">
         <v>102</v>
       </c>
-      <c r="B104" s="23"/>
-      <c r="C104" s="25"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="27"/>
       <c r="D104" s="28"/>
       <c r="E104" s="28"/>
-      <c r="F104" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="G104" s="29"/>
+      <c r="F104" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G104" s="19"/>
       <c r="H104" s="17"/>
       <c r="I104"/>
       <c r="J104"/>
       <c r="K104"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11">
       <c r="A105" s="5">
         <v>103</v>
       </c>
-      <c r="B105" s="23"/>
-      <c r="C105" s="25"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="27"/>
       <c r="D105" s="28"/>
       <c r="E105" s="28"/>
-      <c r="F105" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="G105" s="29"/>
+      <c r="F105" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G105" s="19"/>
       <c r="H105" s="17"/>
       <c r="I105"/>
       <c r="J105"/>
       <c r="K105"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11">
       <c r="A106" s="5">
         <v>104</v>
       </c>
-      <c r="B106" s="23"/>
-      <c r="C106" s="25"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="27"/>
       <c r="D106" s="28"/>
-      <c r="E106" s="30" t="s">
+      <c r="E106" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F106" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="F106" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="G106" s="29"/>
+      <c r="G106" s="19"/>
       <c r="H106" s="17"/>
       <c r="I106"/>
       <c r="J106"/>
       <c r="K106"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11">
       <c r="A107" s="5">
         <v>105</v>
       </c>
-      <c r="B107" s="23"/>
-      <c r="C107" s="25"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="27"/>
       <c r="D107" s="28"/>
-      <c r="E107" s="30" t="s">
+      <c r="E107" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F107" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="F107" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="G107" s="29"/>
+      <c r="G107" s="19"/>
       <c r="H107" s="17"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11">
       <c r="A108" s="5">
         <v>106</v>
       </c>
-      <c r="B108" s="23"/>
-      <c r="C108" s="25"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="27"/>
       <c r="D108" s="28"/>
       <c r="E108" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="F108" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="F108" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="G108" s="29"/>
+      <c r="G108" s="19"/>
       <c r="H108" s="17"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11">
       <c r="A109" s="5">
         <v>107</v>
       </c>
-      <c r="B109" s="23"/>
-      <c r="C109" s="25"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="27"/>
       <c r="D109" s="28"/>
       <c r="E109" s="28"/>
-      <c r="F109" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="G109" s="29"/>
+      <c r="F109" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G109" s="19"/>
       <c r="H109" s="17"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11">
       <c r="A110" s="5">
         <v>108</v>
       </c>
-      <c r="B110" s="23"/>
-      <c r="C110" s="25"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="27"/>
       <c r="D110" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E110" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="E110" s="30" t="s">
+      <c r="F110" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F110" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="G110" s="29"/>
+      <c r="G110" s="19"/>
       <c r="H110" s="17"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11">
       <c r="A111" s="5">
         <v>109</v>
       </c>
-      <c r="B111" s="23"/>
-      <c r="C111" s="25"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="27"/>
       <c r="D111" s="28"/>
-      <c r="E111" s="30" t="s">
+      <c r="E111" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F111" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="F111" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="G111" s="29"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G111" s="19"/>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="5">
         <v>110</v>
       </c>
-      <c r="B112" s="23"/>
-      <c r="C112" s="25"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="27"/>
       <c r="D112" s="28"/>
-      <c r="E112" s="30" t="s">
+      <c r="E112" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F112" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="F112" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="G112" s="29"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G112" s="19"/>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="5">
         <v>111</v>
       </c>
-      <c r="B113" s="23"/>
-      <c r="C113" s="25"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="27"/>
       <c r="D113" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E113" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F113" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="E113" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="F113" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="G113" s="29"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G113" s="19"/>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="5">
         <v>112</v>
       </c>
-      <c r="B114" s="23"/>
-      <c r="C114" s="25"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="27"/>
       <c r="D114" s="28"/>
       <c r="E114" s="28"/>
-      <c r="F114" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="G114" s="29"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F114" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G114" s="19"/>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="5">
         <v>113</v>
       </c>
-      <c r="B115" s="23"/>
-      <c r="C115" s="25"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="27"/>
       <c r="D115" s="28"/>
-      <c r="E115" s="30" t="s">
+      <c r="E115" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F115" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F115" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="G115" s="29"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G115" s="19"/>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="5">
         <v>114</v>
       </c>
-      <c r="B116" s="23"/>
-      <c r="C116" s="25"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="27"/>
       <c r="D116" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="E116" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="E116" s="30" t="s">
+      <c r="F116" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="F116" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="G116" s="31"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G116" s="21"/>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="5">
         <v>115</v>
       </c>
-      <c r="B117" s="23"/>
-      <c r="C117" s="25"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="27"/>
       <c r="D117" s="28"/>
-      <c r="E117" s="30" t="s">
+      <c r="E117" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F117" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="F117" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="G117" s="31"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G117" s="21"/>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="5">
         <v>116</v>
       </c>
-      <c r="B118" s="23"/>
-      <c r="C118" s="25"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="27"/>
       <c r="D118" s="28"/>
       <c r="E118" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="F118" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F118" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="G118" s="31"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G118" s="21"/>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="5">
         <v>117</v>
       </c>
-      <c r="B119" s="23"/>
-      <c r="C119" s="25"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="27"/>
       <c r="D119" s="28"/>
       <c r="E119" s="28"/>
-      <c r="F119" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="G119" s="31"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F119" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G119" s="21"/>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="5">
         <v>118</v>
       </c>
-      <c r="B120" s="23"/>
-      <c r="C120" s="25"/>
+      <c r="B120" s="26"/>
+      <c r="C120" s="27"/>
       <c r="D120" s="28"/>
       <c r="E120" s="28"/>
-      <c r="F120" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="G120" s="31"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F120" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G120" s="21"/>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="5">
         <v>119</v>
       </c>
-      <c r="B121" s="23"/>
-      <c r="C121" s="25"/>
+      <c r="B121" s="26"/>
+      <c r="C121" s="27"/>
       <c r="D121" s="28"/>
-      <c r="E121" s="30" t="s">
+      <c r="E121" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F121" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="F121" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="G121" s="31"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G121" s="21"/>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="5">
         <v>120</v>
       </c>
-      <c r="B122" s="23"/>
-      <c r="C122" s="25"/>
+      <c r="B122" s="26"/>
+      <c r="C122" s="27"/>
       <c r="D122" s="28"/>
-      <c r="E122" s="30" t="s">
+      <c r="E122" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="F122" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="F122" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="G122" s="31"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G122" s="21"/>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="5">
         <v>121</v>
       </c>
-      <c r="B123" s="23"/>
-      <c r="C123" s="25"/>
-      <c r="D123" s="23" t="s">
+      <c r="B123" s="26"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E123" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="E123" s="16" t="s">
+      <c r="F123" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="F123" s="32" t="s">
-        <v>193</v>
-      </c>
       <c r="G123" s="16"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7">
       <c r="A124" s="5">
         <v>122</v>
       </c>
-      <c r="B124" s="23"/>
-      <c r="C124" s="25"/>
-      <c r="D124" s="23"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="26"/>
       <c r="E124" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F124" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="F124" s="32" t="s">
-        <v>195</v>
-      </c>
       <c r="G124" s="16"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7">
       <c r="A125" s="5">
         <v>123</v>
       </c>
-      <c r="B125" s="23"/>
-      <c r="C125" s="25"/>
-      <c r="D125" s="23"/>
+      <c r="B125" s="26"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="26"/>
       <c r="E125" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="F125" s="32" t="s">
         <v>197</v>
       </c>
+      <c r="F125" s="22" t="s">
+        <v>196</v>
+      </c>
       <c r="G125" s="16"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7">
       <c r="A126" s="5">
         <v>124</v>
       </c>
-      <c r="B126" s="23"/>
-      <c r="C126" s="25"/>
-      <c r="D126" s="23"/>
+      <c r="B126" s="26"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="26"/>
       <c r="E126" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="F126" s="32" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="F126" s="22" t="s">
+        <v>198</v>
       </c>
       <c r="G126" s="16"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7">
       <c r="A127" s="5">
         <v>125</v>
       </c>
-      <c r="B127" s="23"/>
-      <c r="C127" s="25"/>
-      <c r="D127" s="23"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="26"/>
       <c r="E127" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="F127" s="32" t="s">
-        <v>202</v>
+        <v>199</v>
+      </c>
+      <c r="F127" s="22" t="s">
+        <v>201</v>
       </c>
       <c r="G127" s="16"/>
     </row>
-    <row r="128" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="16.5" customHeight="1">
       <c r="A128" s="5">
         <v>126</v>
       </c>
-      <c r="B128" s="23"/>
-      <c r="C128" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="D128" s="23" t="s">
+      <c r="B128" s="26"/>
+      <c r="C128" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D128" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="E128" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="E128" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="F128" s="27" t="s">
-        <v>141</v>
+      <c r="F128" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="G128" s="16"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7">
       <c r="A129" s="5">
         <v>127</v>
       </c>
-      <c r="B129" s="23"/>
-      <c r="C129" s="25"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="23"/>
+      <c r="B129" s="26"/>
+      <c r="C129" s="27"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
       <c r="F129" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G129" s="16"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7">
       <c r="A130" s="5">
         <v>128</v>
       </c>
-      <c r="B130" s="23"/>
-      <c r="C130" s="25"/>
-      <c r="D130" s="23"/>
-      <c r="E130" s="23" t="s">
+      <c r="B130" s="26"/>
+      <c r="C130" s="27"/>
+      <c r="D130" s="26"/>
+      <c r="E130" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="F130" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F130" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="G130" s="16"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7">
       <c r="A131" s="5">
         <v>129</v>
       </c>
-      <c r="B131" s="23"/>
-      <c r="C131" s="25"/>
-      <c r="D131" s="23"/>
-      <c r="E131" s="23"/>
+      <c r="B131" s="26"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="26"/>
+      <c r="E131" s="26"/>
       <c r="F131" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G131" s="16"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7">
       <c r="A132" s="5">
         <v>130</v>
       </c>
-      <c r="B132" s="23"/>
-      <c r="C132" s="25"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="23"/>
+      <c r="B132" s="26"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="26"/>
+      <c r="E132" s="26"/>
       <c r="F132" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G132" s="16"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" s="5">
         <v>131</v>
       </c>
-      <c r="B133" s="23"/>
-      <c r="C133" s="25"/>
+      <c r="B133" s="26"/>
+      <c r="C133" s="27"/>
       <c r="D133" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E133" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E133" s="28" t="s">
+      <c r="F133" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="F133" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G133" s="31"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G133" s="21"/>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="5">
         <v>132</v>
       </c>
-      <c r="B134" s="23"/>
-      <c r="C134" s="25"/>
+      <c r="B134" s="26"/>
+      <c r="C134" s="27"/>
       <c r="D134" s="28"/>
       <c r="E134" s="28"/>
-      <c r="F134" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="G134" s="29"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F134" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G134" s="19"/>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="5">
         <v>133</v>
       </c>
-      <c r="B135" s="23"/>
-      <c r="C135" s="25"/>
+      <c r="B135" s="26"/>
+      <c r="C135" s="27"/>
       <c r="D135" s="28"/>
-      <c r="E135" s="30" t="s">
+      <c r="E135" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F135" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="F135" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="G135" s="29"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G135" s="19"/>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="5">
         <v>134</v>
       </c>
-      <c r="B136" s="23"/>
-      <c r="C136" s="25"/>
+      <c r="B136" s="26"/>
+      <c r="C136" s="27"/>
       <c r="D136" s="28"/>
-      <c r="E136" s="30" t="s">
+      <c r="E136" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F136" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="F136" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="G136" s="29"/>
-    </row>
-    <row r="137" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G136" s="19"/>
+    </row>
+    <row r="137" spans="1:7" ht="16.5" customHeight="1">
       <c r="A137" s="5">
         <v>135</v>
       </c>
-      <c r="B137" s="23"/>
-      <c r="C137" s="25"/>
+      <c r="B137" s="26"/>
+      <c r="C137" s="27"/>
       <c r="D137" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E137" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F137" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="E137" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="F137" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="G137" s="29"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G137" s="19"/>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" s="5">
         <v>136</v>
       </c>
-      <c r="B138" s="23"/>
-      <c r="C138" s="25"/>
+      <c r="B138" s="26"/>
+      <c r="C138" s="27"/>
       <c r="D138" s="28"/>
       <c r="E138" s="28"/>
-      <c r="F138" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="G138" s="29"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F138" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G138" s="19"/>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="5">
         <v>137</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="25"/>
+      <c r="B139" s="26"/>
+      <c r="C139" s="27"/>
       <c r="D139" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="E139" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="E139" s="30" t="s">
+      <c r="F139" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="F139" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="G139" s="29"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G139" s="19"/>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="5">
         <v>138</v>
       </c>
-      <c r="B140" s="23"/>
-      <c r="C140" s="25"/>
+      <c r="B140" s="26"/>
+      <c r="C140" s="27"/>
       <c r="D140" s="28"/>
-      <c r="E140" s="30" t="s">
+      <c r="E140" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F140" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="F140" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="G140" s="29"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G140" s="19"/>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="5">
         <v>139</v>
       </c>
-      <c r="B141" s="23"/>
-      <c r="C141" s="25"/>
+      <c r="B141" s="26"/>
+      <c r="C141" s="27"/>
       <c r="D141" s="28"/>
       <c r="E141" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="F141" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F141" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="G141" s="29"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G141" s="19"/>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" s="5">
         <v>140</v>
       </c>
-      <c r="B142" s="23"/>
-      <c r="C142" s="25"/>
+      <c r="B142" s="26"/>
+      <c r="C142" s="27"/>
       <c r="D142" s="28"/>
       <c r="E142" s="28"/>
-      <c r="F142" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="G142" s="29"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F142" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G142" s="19"/>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="5">
         <v>141</v>
       </c>
-      <c r="B143" s="23"/>
-      <c r="C143" s="25"/>
-      <c r="D143" s="23" t="s">
-        <v>203</v>
+      <c r="B143" s="26"/>
+      <c r="C143" s="27"/>
+      <c r="D143" s="26" t="s">
+        <v>202</v>
       </c>
       <c r="E143" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F143" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="F143" s="32" t="s">
-        <v>193</v>
-      </c>
       <c r="G143" s="14"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7">
       <c r="A144" s="5">
         <v>142</v>
       </c>
-      <c r="B144" s="23"/>
-      <c r="C144" s="25"/>
-      <c r="D144" s="23"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="26"/>
       <c r="E144" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F144" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="F144" s="32" t="s">
-        <v>195</v>
-      </c>
       <c r="G144" s="14"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7">
       <c r="A145" s="5">
         <v>143</v>
       </c>
-      <c r="B145" s="23"/>
-      <c r="C145" s="25"/>
-      <c r="D145" s="23"/>
+      <c r="B145" s="26"/>
+      <c r="C145" s="27"/>
+      <c r="D145" s="26"/>
       <c r="E145" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F145" s="32" t="s">
-        <v>204</v>
+        <v>195</v>
+      </c>
+      <c r="F145" s="22" t="s">
+        <v>203</v>
       </c>
       <c r="G145" s="14"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7">
       <c r="A146" s="5">
         <v>144</v>
       </c>
-      <c r="B146" s="23"/>
-      <c r="C146" s="25"/>
-      <c r="D146" s="23"/>
+      <c r="B146" s="26"/>
+      <c r="C146" s="27"/>
+      <c r="D146" s="26"/>
       <c r="E146" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="F146" s="32" t="s">
-        <v>202</v>
+        <v>199</v>
+      </c>
+      <c r="F146" s="22" t="s">
+        <v>201</v>
       </c>
       <c r="G146" s="14"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7">
       <c r="A147" s="5">
         <v>145</v>
       </c>
-      <c r="B147" s="23"/>
-      <c r="C147" s="19" t="s">
-        <v>216</v>
+      <c r="B147" s="26"/>
+      <c r="C147" s="24" t="s">
+        <v>215</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E147" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F147" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F147" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="G147" s="16"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7">
       <c r="A148" s="5">
         <v>146</v>
       </c>
-      <c r="B148" s="23"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="23" t="s">
-        <v>97</v>
+      <c r="B148" s="26"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="26" t="s">
+        <v>96</v>
       </c>
       <c r="E148" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F148" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="F148" s="8" t="s">
-        <v>206</v>
-      </c>
       <c r="G148" s="16"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7">
       <c r="A149" s="5">
         <v>147</v>
       </c>
-      <c r="B149" s="23"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="23"/>
+      <c r="B149" s="26"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="26"/>
       <c r="E149" s="16" t="s">
         <v>42</v>
       </c>
@@ -5105,303 +5113,286 @@
       </c>
       <c r="G149" s="16"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7">
       <c r="A150" s="5">
         <v>148</v>
       </c>
-      <c r="B150" s="23"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="23"/>
+      <c r="B150" s="26"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="26"/>
       <c r="E150" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G150" s="16"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7">
       <c r="A151" s="5">
         <v>149</v>
       </c>
-      <c r="B151" s="23"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="23"/>
-      <c r="E151" s="23" t="s">
+      <c r="B151" s="26"/>
+      <c r="C151" s="24"/>
+      <c r="D151" s="26"/>
+      <c r="E151" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="F151" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F151" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="G151" s="16"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7">
       <c r="A152" s="5">
         <v>150</v>
       </c>
-      <c r="B152" s="23"/>
-      <c r="C152" s="19"/>
-      <c r="D152" s="23"/>
-      <c r="E152" s="23"/>
+      <c r="B152" s="26"/>
+      <c r="C152" s="24"/>
+      <c r="D152" s="26"/>
+      <c r="E152" s="26"/>
       <c r="F152" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G152" s="16"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7">
       <c r="A153" s="5">
         <v>151</v>
       </c>
-      <c r="B153" s="23"/>
-      <c r="C153" s="19"/>
-      <c r="D153" s="23" t="s">
-        <v>98</v>
+      <c r="B153" s="26"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="26" t="s">
+        <v>97</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F153" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G153" s="16"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7">
       <c r="A154" s="5">
         <v>152</v>
       </c>
-      <c r="B154" s="23"/>
-      <c r="C154" s="19"/>
-      <c r="D154" s="23"/>
+      <c r="B154" s="26"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="26"/>
       <c r="E154" s="16" t="s">
         <v>54</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G154" s="16"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7">
       <c r="A155" s="5">
         <v>153</v>
       </c>
-      <c r="B155" s="23"/>
-      <c r="C155" s="19"/>
-      <c r="D155" s="23"/>
+      <c r="B155" s="26"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="26"/>
       <c r="E155" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F155" s="8" t="s">
         <v>56</v>
       </c>
       <c r="G155" s="16"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7">
       <c r="A156" s="5">
         <v>154</v>
       </c>
-      <c r="B156" s="23"/>
-      <c r="C156" s="19"/>
-      <c r="D156" s="23" t="s">
+      <c r="B156" s="26"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="26" t="s">
         <v>46</v>
       </c>
       <c r="E156" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>57</v>
+        <v>217</v>
       </c>
       <c r="G156" s="16"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7">
       <c r="A157" s="5">
         <v>155</v>
       </c>
-      <c r="B157" s="23"/>
-      <c r="C157" s="19"/>
-      <c r="D157" s="23"/>
-      <c r="E157" s="23" t="s">
+      <c r="B157" s="26"/>
+      <c r="C157" s="24"/>
+      <c r="D157" s="26"/>
+      <c r="E157" s="26" t="s">
         <v>35</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G157" s="16"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7">
       <c r="A158" s="5">
         <v>156</v>
       </c>
-      <c r="B158" s="23"/>
-      <c r="C158" s="19"/>
-      <c r="D158" s="23"/>
-      <c r="E158" s="23"/>
+      <c r="B158" s="26"/>
+      <c r="C158" s="24"/>
+      <c r="D158" s="26"/>
+      <c r="E158" s="26"/>
       <c r="F158" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G158" s="16"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7">
       <c r="A159" s="5">
         <v>157</v>
       </c>
-      <c r="B159" s="23"/>
-      <c r="C159" s="19"/>
-      <c r="D159" s="23" t="s">
+      <c r="B159" s="26"/>
+      <c r="C159" s="24"/>
+      <c r="D159" s="26" t="s">
         <v>47</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F159" s="8" t="s">
         <v>44</v>
       </c>
       <c r="G159" s="16"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7">
       <c r="A160" s="5">
         <v>158</v>
       </c>
-      <c r="B160" s="23"/>
-      <c r="C160" s="19"/>
-      <c r="D160" s="23"/>
+      <c r="B160" s="26"/>
+      <c r="C160" s="24"/>
+      <c r="D160" s="26"/>
       <c r="E160" s="16" t="s">
         <v>48</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G160" s="16"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7">
       <c r="A161" s="5">
         <v>159</v>
       </c>
-      <c r="B161" s="23"/>
-      <c r="C161" s="19"/>
-      <c r="D161" s="23"/>
+      <c r="B161" s="26"/>
+      <c r="C161" s="24"/>
+      <c r="D161" s="26"/>
       <c r="E161" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G161" s="16"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7">
       <c r="A162" s="5">
         <v>160</v>
       </c>
-      <c r="B162" s="23"/>
-      <c r="C162" s="19"/>
-      <c r="D162" s="23"/>
+      <c r="B162" s="26"/>
+      <c r="C162" s="24"/>
+      <c r="D162" s="26"/>
       <c r="E162" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G162" s="16"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7">
       <c r="A163" s="5">
         <v>161</v>
       </c>
-      <c r="B163" s="23"/>
-      <c r="C163" s="19"/>
-      <c r="D163" s="23" t="s">
+      <c r="B163" s="26"/>
+      <c r="C163" s="24"/>
+      <c r="D163" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E163" s="23" t="s">
-        <v>76</v>
+      <c r="E163" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G163" s="16"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7">
       <c r="A164" s="5">
         <v>162</v>
       </c>
-      <c r="B164" s="23"/>
-      <c r="C164" s="19"/>
-      <c r="D164" s="23"/>
-      <c r="E164" s="23"/>
+      <c r="B164" s="26"/>
+      <c r="C164" s="24"/>
+      <c r="D164" s="26"/>
+      <c r="E164" s="26"/>
       <c r="F164" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G164" s="16"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7">
       <c r="A165" s="5">
         <v>163</v>
       </c>
-      <c r="B165" s="23"/>
-      <c r="C165" s="19"/>
-      <c r="D165" s="23"/>
+      <c r="B165" s="26"/>
+      <c r="C165" s="24"/>
+      <c r="D165" s="26"/>
       <c r="E165" s="16" t="s">
         <v>52</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G165" s="16"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7">
       <c r="A166" s="5">
         <v>164</v>
       </c>
-      <c r="B166" s="23"/>
-      <c r="C166" s="20"/>
-      <c r="D166" s="23"/>
+      <c r="B166" s="26"/>
+      <c r="C166" s="25"/>
+      <c r="D166" s="26"/>
       <c r="E166" s="16" t="s">
         <v>53</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G166" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="D79:D88"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="D54:D63"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E79:E82"/>
-    <mergeCell ref="E163:E164"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="D153:D155"/>
-    <mergeCell ref="D156:D158"/>
-    <mergeCell ref="E157:E158"/>
-    <mergeCell ref="D159:D162"/>
-    <mergeCell ref="C147:C166"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="D163:D166"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="B4:B166"/>
-    <mergeCell ref="C97:C127"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="E130:E132"/>
-    <mergeCell ref="D133:D136"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="D139:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="D143:D146"/>
-    <mergeCell ref="C128:C146"/>
-    <mergeCell ref="D123:D127"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="D116:D122"/>
-    <mergeCell ref="E118:E120"/>
-    <mergeCell ref="D102:D109"/>
-    <mergeCell ref="E102:E105"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="D113:D115"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C4:C30"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="C49:C73"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="C74:C96"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="D16:D23"/>
+    <mergeCell ref="C31:C48"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="D42:D48"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D24:D26"/>
     <mergeCell ref="E113:E114"/>
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="E42:E43"/>
@@ -5418,29 +5409,46 @@
     <mergeCell ref="D97:D101"/>
     <mergeCell ref="E97:E98"/>
     <mergeCell ref="E99:E101"/>
+    <mergeCell ref="C147:C166"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="D163:D166"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="B4:B166"/>
+    <mergeCell ref="C97:C127"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="D133:D136"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="D139:D142"/>
+    <mergeCell ref="D143:D146"/>
+    <mergeCell ref="C128:C146"/>
+    <mergeCell ref="D123:D127"/>
+    <mergeCell ref="D116:D122"/>
+    <mergeCell ref="D102:D109"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="E163:E164"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="D153:D155"/>
+    <mergeCell ref="D156:D158"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="D159:D162"/>
+    <mergeCell ref="E130:E132"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="D113:D115"/>
+    <mergeCell ref="D79:D88"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="D54:D63"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E79:E82"/>
     <mergeCell ref="D67:D69"/>
     <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="D42:D48"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D16:D23"/>
-    <mergeCell ref="C31:C48"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C4:C30"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="C49:C73"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="C74:C96"/>
-    <mergeCell ref="E38:E39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
